--- a/result2Cr13/jxh0.3-1-jxw0.4-1.4-cw0.12-0.28normB固定极齿.xlsx
+++ b/result2Cr13/jxh0.3-1-jxw0.4-1.4-cw0.12-0.28normB固定极齿.xlsx
@@ -127,11 +127,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,20 +165,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,13 +186,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -208,9 +194,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,7 +216,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,26 +253,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,19 +269,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,16 +284,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +314,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +434,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,85 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,31 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,9 +510,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +582,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,212 +605,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,16 +967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>167005</xdr:rowOff>
+      <xdr:rowOff>85090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>458470</xdr:colOff>
+      <xdr:colOff>241935</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1000,7 +993,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="784860" y="3786505"/>
+          <a:off x="568325" y="3704590"/>
           <a:ext cx="3788410" cy="3544570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1467,7 +1460,7 @@
   <sheetPr/>
   <dimension ref="A1:I441"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
